--- a/outputs/MIAMI1.xlsx
+++ b/outputs/MIAMI1.xlsx
@@ -424,195 +424,246 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, Abi would have likely thought of finding Assignment 7 as a necessary step toward submitting it. Here's why, considering Abi's cognitive characteristics:
-1. Process-oriented: Abi likes to understand the comprehensive process and follows step-by-step procedures. Finding the assignment would naturally be the first logical step before being able to submit it.
-2. Comprehensive information processing: Given that Assignment 7 is visible in the "Coming Up" section on the right side of the page, and Abi tends to gather all available information before proceeding, she would notice this and understand it as part of the process.
-3. Risk-averse: Abi wants to make sure she's doing things correctly. She would want to confirm she's found the correct assignment before attempting to submit it.
-4. Self-perception about tech: Given her lower confidence with technology, having a clear indicator of Assignment 7 in the "Coming Up" section would help reassure her that she's on the right track.
-The interface also supports Abi's approach by:
-- Clearly showing Assignment 7 in the "Coming Up" section
-- Having a visible "Assignments" link in the left navigation menu
-- Providing a structured layout that matches her preference for systematic approaches
-So yes, finding the assignment would definitely be one of the steps Abi would think about in her systematic approach to submitting the assignment.</t>
+          <t>Answer: YES
+Facets:
+1. Motivations
+2. Information Processing Style
+Why: ABI will consider finding Assignment 7 as a necessary first step because:
+1. The page shows "Assignment 7" clearly in the "Coming Up" section on the right side, which aligns with her motivation to complete tasks
+2. The page provides comprehensive information about course navigation and module structure, which matches her information processing style of gathering complete information before acting
+3. The main content area provides clear instructions about course progression and assignments, which helps ABI understand that finding the assignment is a necessary step to complete it
+The clear visibility of Assignment 7 and the structured layout of the course page would make ABI confident that finding the assignment is indeed a step toward her goal of submitting it.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, Abi should be able to take this action because:
-1. The "Assignment 7" is clearly visible in the "Coming Up" section on the right side of the page, which provides good visibility.
-2. Abi, who is known to be someone who:
-- Likes to gather information comprehensively before proceeding
-- Prefers to understand the whole process
-- Is risk-averse
-- Likes to be methodical
-Will appreciate that:
-- The assignment is clearly labeled and positioned in a logical place
-- It's shown in a dedicated "Coming Up" section which helps with planning
-- The interface is straightforward and doesn't require guessing
-- There's no risk of clicking the wrong thing since it's clearly labeled
-3. The layout is simple and the assignment link appears to be clickable, which aligns with standard web conventions that Abi would be familiar with.
-However, one thing that might make Abi hesitate is whether clicking the assignment directly from the home page is the "right" way to access it, versus going through the Modules section first. Given Abi's methodical nature, she might want to verify this is the correct approach by checking the syllabus first.
-But overall, the interface provides enough clarity and visibility for Abi to confidently click on Assignment 7 in the Coming Up section.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+Why: Although Assignment 7 is visible in the "Coming Up" section, ABI will likely hesitate to click it because:
+1. There's no clear indication or information about what clicking on "Assignment 7" will do or where it will lead her (low computer self-efficacy)
+2. The page shows multiple navigation options (Modules, Assignments in left menu, and the Coming Up section) which might create confusion about which path is the correct one to access the assignment (comprehensive information processing style)
+3. Given ABI's risk-averse nature, she might be uncertain about clicking on the link without clear confirmation that this is the right path to submit the assignment
+4. The page doesn't provide explicit instructions about how to access assignments, making ABI unsure if clicking the link in "Coming Up" is the proper way to reach the assignment submission page
+ABI would prefer clearer instructions or confirmation that clicking this link is the correct path to submit Assignment 7.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Looking at the interface shown in the image, clicking on "Assignment 7" would be an effective action because:
-1. It directly relates to the user's goal of finding Assignment 7
-2. The feedback is clear - after clicking, the user will be taken to a detailed assignment page showing:
-   - The assignment title "Project 7 (100 points)"
-   - A link to the assignment on GitHub
-   - The actual assignment content showing exam-style questions with tables and financial data
-   - Navigation options showing "Previous Links" and "Next Links"
-The user will know they've made progress because:
-1. The page clearly shows the assignment details they're looking for
-2. The breadcrumb trail at the top shows their location in the course navigation
-3. The assignment content is clearly visible, including the point value and requirements
-So yes, they would be confident they're on the right path toward their goal of accessing Assignment 7, as the system provides clear visual confirmation that they've reached the correct assignment page with all the necessary information to proceed with the assignment.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: Although ABI has reached the Assignment 7 page, she will likely be uncertain about her progress because:
+1. The page shows a link to an external site (https://classroom.github.com) with a message "This tool needs to be loaded in a new browser window" which may create uncertainty due to:
+   - Having to navigate away from the current system (low computer self-efficacy)
+   - Unclear process about how submission will work in this external tool (comprehensive information processing style)
+2. There's no clear step-by-step instruction about:
+   - How to submit the assignment
+   - What happens after clicking "Load Assignment 7 in a new window"
+   - Whether this is the right path for submission
+3. The presence of multiple navigation options in the left menu and the need to use an external tool would make ABI unsure if she's following the correct process (process-oriented learning style)
+ABI would prefer clearer confirmation and instructions about the submission process to feel confident she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Looking at this page layout for CS 162.400 (Fall 2021), there are several observations regarding whether a user would know to click the GitHub link:
-1. Navigation Structure:
-- The assignment 7 link shows up in two places - both in the top breadcrumb navigation and in the main content area
-- The Github link is clearly visible under "Project 7 (100 points)"
-2. Visual Cues:
-- The link is formatted in blue, underlined text which is a standard indicator of a clickable link
-- There's even a small assignment icon next to the heading which helps draw attention
-3. Potential Challenges:
-- The instruction "This tool needs to be loaded in a new browser window" appears below the link
-- There are also two navigation options at the bottom ("Previous Links" and "Next Links") which could be slightly confusing
-4. Usability Considerations:
-- The link's purpose isn't immediately clear - it just says "classroom.github.com" without explaining what will happen when clicked
-- A user might hesitate because it's an external link
-- The parenthetical "(Links to an external site.)" provides some context but might not be enough for all users
-Given these factors, while the link is visually apparent, some users might have uncertainty about:
-- Whether this is the correct link to click
-- What will happen when they click it
-- If they should click it given it goes to an external site
-To improve clarity, the page could:
-- Provide clearer instructions about what to expect when clicking the link
-- Better explain the purpose of going to GitHub
-- More prominently display the instruction about needing a new browser window</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. Learning Style
+Why: ABI will be hesitant to click the GitHub link because:
+1. The link leads to an external site (GitHub) which may be unfamiliar to ABI, triggering her low computer self-efficacy
+2. The page only shows a brief message "This tool needs to be loaded in a new browser window" without:
+   - Clear instructions about what will happen after clicking
+   - Explanation of what GitHub is or why it's needed
+   - Step-by-step guidance about the submission process
+   - Information about whether this is safe or the right path
+3. ABI's risk-averse nature would make her hesitant to:
+   - Leave the current familiar system
+   - Open a new browser window without knowing what to expect
+   - Click on an external link without comprehensive information
+4. Given her process-oriented learning style, ABI would prefer explicit instructions rather than having to figure out what to do on an external site
+The lack of detailed guidance and the requirement to use an unfamiliar external tool would make ABI uncertain about proceeding with this action.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the GitHub Classroom interface shown in the image, I can say yes - after clicking the GitHub link, there are clear indicators of progress:
-1. The page shows "You're ready to go!" with confirmation that the assignment has been accepted
-2. There's a specific repository link created for the assignment (project-7)
-3. The system explicitly states "You accepted the assignment, project-7"
-4. The repository is confirmed to be configured for this assignment
-These elements provide clear feedback that the action was successful and they're making progress toward accessing Assignment 7. The confirmation message and repository creation are unmistakable indicators that they've taken the correct step.
-Additionally, the page provides extra useful information:
-- Access to the GitHub Student Developer Pack
-- Links to GitHub Education resources
-- Various navigation options in the menu
-So not only will they know they're on the right track, but they'll also have access to all the tools and resources needed to proceed with the assignment.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. Attitude Toward Risk
+Why: Even though ABI has reached the GitHub page, she will be uncertain about her progress because:
+1. The page presents unfamiliar technical elements:
+   - Multiple new icons in the navigation
+   - Technical terms like "repository" and "GitHub Pro"
+   - A new external link to the assignment repository
+2. Information Processing concerns:
+   - No clear step-by-step instructions about how to proceed with submission
+   - Multiple pieces of information (repository creation, GitHub Student Developer Pack) that may overwhelm ABI
+   - Unclear if this is the final destination for submission
+3. Learning Style misalignment:
+   - No process-oriented guidance about what to do next
+   - No clear indication if additional steps are needed
+   - No confirmation about whether this is the right path for submission
+4. Risk and Self-Efficacy concerns:
+   - New unfamiliar environment (GitHub)
+   - Uncertainty about whether clicking the repository link is safe or correct
+   - No clear confirmation that she's on the right track for submitting the assignment
+ABI would need clearer confirmation and step-by-step instructions to feel confident she's making progress toward submitting the assignment.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at this Canvas course homepage for CS 162, I don't see any direct link or obvious path to Gradescope for submitting assignments. A student would need to know that assignments are submitted through Gradescope, and this information would likely be found in the syllabus or assignment instructions rather than being immediately visible on this main page.
-Given that this is the course homepage, Abi, who tends to be risk-averse and likes to gather comprehensive information before proceeding, would likely:
-1. Not immediately know that Gradescope is where assignments should be submitted
-2. Look for explicit instructions about submission processes
-3. Want to verify the correct submission platform and process before proceeding
-So no, Abi probably would not have immediately thought of "Go to Gradescope" as a step, since:
-- The platform isn't mentioned on this page
-- There's no clear indication that assignments are submitted through Gradescope
-- Abi's comprehensive information processing style means she would look for explicit instructions rather than making assumptions about where to submit
-Abi would more likely think of steps like "Check the assignment instructions" or "Look in the syllabus for submission guidelines" before thinking about Gradescope specifically.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (No clear indication about Gradescope's role)
+Why: ABI will not likely think of going to Gradescope as a step because:
+1. Information Processing Style concerns:
+   - There's no clear information on the page about using Gradescope for submission
+   - Although Gradescope appears in the left menu, there's no explicit connection between it and assignment submission
+   - The comprehensive information gatherer in ABI would struggle without clear indication of Gradescope's purpose
+2. Computer Self-Efficacy:
+   - Without clear instructions about using Gradescope, ABI's low confidence with unfamiliar tools would make her hesitant
+   - No indication that Gradescope is the correct tool for submission
+3. Learning Style:
+   - No process-oriented guidance mentioning Gradescope as part of the submission workflow
+   - Lack of step-by-step instructions about how assignments should be submitted
+4. None of the Above:
+   - The page doesn't establish any connection between Assignment 7 and Gradescope
+   - No clear indication that assignments need to be submitted through Gradescope
+Without explicit information linking Gradescope to assignment submission, ABI would not naturally consider this as a step in the process.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Based on the provided image, yes, Abi should be able to take this action because:
-1. The "Assignment 7" is clearly visible under the "Coming Up" section in the right-hand side of the page.
-2. It appears as a clickable link, which is a standard web interface element that most users, including Abi, would be familiar with.
-3. The placement is logical - assignments are typically listed in a sidebar or prominent location for easy access.
-However, Abi, being a comprehensive information gatherer who likes to be thorough and certain before taking actions, might want to:
-- Verify if this is indeed the correct assignment they need to submit
-- Check if there are any prerequisites before accessing the assignment
-- Look for any specific submission instructions
-While the link is visible, the page could be more supportive for Abi by:
-1. Including the due date directly next to the assignment
-2. Providing a brief description of the assignment type/requirements
-3. Including an icon or indicator to show if the assignment is ready for submission
-Despite these potential improvements, the current interface does provide enough clarity for Abi to take the action of clicking on Assignment 7.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. None of the Above (Lack of clear submission path)
+Why: ABI will be hesitant to click on Assignment 7 in the Coming Up section because:
+1. Computer Self-Efficacy:
+   - No clear indication that clicking Assignment 7 will lead to Gradescope
+   - Uncertainty about whether this is the correct path to submission
+2. Attitude Toward Risk:
+   - Without clear information about where the link leads, ABI would be hesitant to click
+   - Multiple possible paths (Assignments in left menu vs Coming Up section) create uncertainty
+3. Information Processing Style:
+   - No comprehensive information about how to submit assignments
+   - No clear connection between Assignment 7 link and Gradescope
+   - Multiple navigation options could overwhelm ABI's need for complete information
+4. None of the Above:
+   - The page doesn't provide any indication that assignments need to be submitted through Gradescope
+   - No clear pathway or instructions linking Assignment 7 to Gradescope submission
+ABI would need explicit information about where the link leads and confirmation that this is the correct path to Gradescope for assignment submission.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Looking at this scenario and the image:
-Yes, clicking on Assignment 7 link would confirm to the user that they're making progress because:
-1. The page clearly shows "Assignment 7" at the top with "Project 7 (100 points)" details
-2. The navigation breadcrumb at the top shows they're in the correct location (My Dashboard &gt; INTRO TO COMPUTER SCIENCE II &gt; Assignments &gt; Assignment 7)
-3. The page displays the actual assignment content, showing a financial/accounting problem with tables and calculations
-4. There's a "Load Assignment 7 in a new window" button
-5. It's clear this is the assignment they need to complete before submitting to Gradescope
-However, this page doesn't directly show how to submit to Gradescope - it only shows the assignment content. The user will need to take additional steps to actually submit their work through Gradescope. While they're making progress by accessing the assignment details, they haven't yet reached their final goal of submitting the assignment.
-The user can confirm they're on the right path because they can now see the actual assignment they need to complete, but they'll need to look for additional navigation or instructions for the submission process itself.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Missing Gradescope connection)
+Why: ABI will not feel confident about her progress because:
+1. Information Processing Style:
+   - The page shows GitHub-related information instead of Gradescope
+   - No clear indication that this is a step toward submitting through Gradescope
+   - The information presented (about GitHub classroom) seems unrelated to her goal of submitting through Gradescope
+2. Computer Self-Efficacy:
+   - Landing on a page about GitHub when trying to reach Gradescope would decrease her confidence
+   - No clear connection between this page and the final submission process
+   - Technical terms and unfamiliar environment would make her doubt her actions
+3. Learning Style:
+   - No step-by-step guidance about how this page relates to Gradescope submission
+   - Lack of clear process-oriented instructions about what to do next
+4. None of the Above:
+   - The page doesn't mention Gradescope at all
+   - No indication that this is a correct step toward submission
+   - The page seems to lead to a different system (GitHub) than her intended destination (Gradescope)
+ABI would feel lost and uncertain as this page appears to lead her away from her goal of submitting the assignment through Gradescope, rather than toward it.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at this interface, let me analyze whether this step is clear for a user:
-Clear Aspects:
-1. There's a visible link/button that says "Load Assignment 7 in a new window"
-2. The interface indicates that "This tool needs to be loaded in a new browser window"
-3. The assignment title and points (Project 7, 100 points) are clearly displayed
-Potential Issues:
-1. The GitHub classroom link above the button might cause confusion - a user might not know whether to click that or the load button
-2. There's no explicit instruction about what to do after clicking the button
-3. The connection to Gradescope isn't immediately clear from this page
-For an uncertain user:
-- They might hesitate between clicking the GitHub link or the load button
-- They might not be sure if this is the correct path to submit their assignment
-- They might wonder if they need to prepare anything before loading the assignment
-Recommendation:
-The interface could be improved by:
-1. Adding clearer instructions about the submission process
-2. Explaining that this is the first step toward submitting on Gradescope
-3. Removing or clarifying the purpose of the GitHub classroom link to avoid confusion
-While the action itself (clicking the load button) is straightforward, the overall context and next steps could be clearer to help users feel more confident about the process.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. Learning Style
+Why: ABI will be hesitant to click "Load Assignment 7 in a new window" because:
+1. Computer Self-Efficacy:
+   - The message about loading in a new browser window creates uncertainty
+   - No clear indication this leads to Gradescope
+   - Technical terms and external links may decrease her confidence
+2. Attitude Toward Risk:
+   - Opening in a new window represents an unknown outcome
+   - No clear indication of what will happen after clicking
+   - ABI is risk-averse to actions with unclear consequences
+3. Information Processing Style:
+   - Lacks comprehensive information about the submission process
+   - No clear connection between this action and Gradescope submission
+   - Multiple elements (GitHub link, new window message) create confusion
+4. Learning Style:
+   - No step-by-step guidance about how this relates to submission
+   - Lacks process-oriented instructions about what happens next
+   - No clear indication this is part of the submission workflow
+The page doesn't provide enough clear information to make ABI confident that clicking this button will help her achieve her goal of submitting through Gradescope.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Looking at the Gradescope interface, Project 7's assignment details are clearly visible in the dashboard. If Abi clicks on Project 7, they will know they're making progress because:
-1. The assignment name "Project 7" is clearly displayed in the list of active assignments
-2. The due dates are clearly shown (NOV 10, 2021 11:59 PM with a late due date of NOV 12, 2021)
-3. The submission button placement and visibility is consistent with other assignments
-4. The status shows it's ON and 100% graded
-However, there might be some uncertainty because:
-1. The interface doesn't show explicitly what happens after clicking (no preview of next step)
-2. There's no immediate visual feedback indicating what the submission process will look like
-3. The "load assignment" action isn't clearly labeled - it's implied by clicking on the assignment name
-To more confidently confirm they're on the right track, Abi might want to:
-- Check if this is indeed the correct Project 7 by verifying the dates and assignment details
-- Look for any specific submission instructions in the assignment description
-- Verify if there are any prerequisite steps before submission
-From a hesitant learner's perspective, some additional confirmation or preview of the next step would be helpful to assure them they're taking the correct action.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: ABI will feel more confident now because:
+1. Information Processing Style:
+   - The page clearly shows she's in Gradescope, which is where she wants to submit
+   - The interface provides comprehensive information about assignments including due dates and submission status
+   - Project 7 is clearly visible in the list of assignments with relevant details
+2. Computer Self-Efficacy:
+   - The familiar Gradescope environment (assuming she's used it before for other assignments)
+   - Clear organization of assignments with their status
+   - The interface shows other successfully submitted assignments (100% complete bars), which builds confidence
+3. Learning Style:
+   - The process-oriented layout shows a clear progression of assignments
+   - Due dates and submission status are clearly displayed
+   - The consistent format for all assignments helps understand the submission process
+The page provides clear confirmation that she's in the right place (Gradescope) and shows Project 7 in the context of other assignments, with clear submission information and due dates. This aligns with her need for comprehensive information and process-oriented learning style.</t>
         </is>
       </c>
     </row>

--- a/outputs/MIAMI1.xlsx
+++ b/outputs/MIAMI1.xlsx
@@ -431,8 +431,8 @@
 Why: ABI will consider finding Assignment 7 as a necessary first step because:
 1. The page shows "Assignment 7" clearly in the "Coming Up" section on the right side, which aligns with her motivation to complete tasks
 2. The page provides comprehensive information about course navigation and module structure, which matches her information processing style of gathering complete information before acting
-3. The main content area provides clear instructions about course progression and assignments, which helps ABI understand that finding the assignment is a necessary step to complete it
-The clear visibility of Assignment 7 and the structured layout of the course page would make ABI confident that finding the assignment is indeed a step toward her goal of submitting it.</t>
+3. The main content area provides clear instructions about course progression and assignments, which helps ABI understand that finding the assignment is indeed a required step in the submission process
+The clear visibility of "Assignment 7" in the Coming Up section and the structured layout of the page would give ABI confidence that she's on the right track to achieving her goal of submitting the assignment.</t>
         </is>
       </c>
     </row>
@@ -445,11 +445,11 @@
 2. Attitude Toward Risk
 3. Information Processing Style
 Why: Although Assignment 7 is visible in the "Coming Up" section, ABI will likely hesitate to click it because:
-1. There's no clear indication or information about what clicking on "Assignment 7" will do or where it will lead her (low computer self-efficacy)
-2. The page shows multiple navigation options (Modules, Assignments in left menu, and the Coming Up section) which might create confusion about which path is the correct one to access the assignment (comprehensive information processing style)
-3. Given ABI's risk-averse nature, she might be uncertain about clicking on the link without clear confirmation that this is the right path to submit the assignment
-4. The page doesn't provide explicit instructions about how to access assignments, making ABI unsure if clicking the link in "Coming Up" is the proper way to reach the assignment submission page
-ABI would prefer clearer instructions or confirmation that clicking this link is the correct path to submit Assignment 7.</t>
+1. There's no clear indication or instruction that clicking on "Assignment 7" in the Coming Up section will lead to the assignment submission page
+2. The main content area provides instructions about following a specific sequence (Syllabus → Modules → Start Here), which might make ABI unsure if directly clicking Assignment 7 is the correct approach
+3. Given ABI's risk-averse nature and low computer self-efficacy, she would prefer clear confirmation that clicking this link is the right path
+4. ABI's comprehensive information processing style would make her want to understand if there's a specific required path to access assignments, rather than taking what might seem like a shortcut
+ABI would likely look for a more structured approach, possibly through the "Assignments" link in the left navigation menu, which appears to be the designated path for accessing assignments.</t>
         </is>
       </c>
     </row>
@@ -461,16 +461,15 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Learning Style
-Why: Although ABI has reached the Assignment 7 page, she will likely be uncertain about her progress because:
-1. The page shows a link to an external site (https://classroom.github.com) with a message "This tool needs to be loaded in a new browser window" which may create uncertainty due to:
-   - Having to navigate away from the current system (low computer self-efficacy)
-   - Unclear process about how submission will work in this external tool (comprehensive information processing style)
-2. There's no clear step-by-step instruction about:
-   - How to submit the assignment
-   - What happens after clicking "Load Assignment 7 in a new window"
-   - Whether this is the right path for submission
-3. The presence of multiple navigation options in the left menu and the need to use an external tool would make ABI unsure if she's following the correct process (process-oriented learning style)
-ABI would prefer clearer confirmation and instructions about the submission process to feel confident she's making progress toward her goal.</t>
+Why: Even though ABI has reached the Assignment 7 page, she will likely feel uncertain about her progress because:
+1. The page shows a link to an external site (https://classroom.github.com/a/36Wcqvot) and mentions "This tool needs to be loaded in a new browser window" which may cause anxiety due to:
+   - No clear instructions about what happens after clicking the link
+   - Uncertainty about leaving the current platform
+   - No comprehensive information about the submission process
+2. The page shows project details but doesn't provide clear submission instructions or confirmation that this is where she needs to be to submit the assignment
+3. The presence of technical elements (GitHub classroom link) without detailed explanation would make ABI uncomfortable due to her low computer self-efficacy
+4. There's no clear step-by-step process outlined for submission, which doesn't align with her process-oriented learning style
+ABI would prefer more explicit confirmation and detailed instructions about the submission process rather than just seeing the assignment content.</t>
         </is>
       </c>
     </row>
@@ -484,23 +483,107 @@
 3. Information Processing Style
 4. Learning Style
 Why: ABI will be hesitant to click the GitHub link because:
-1. The link leads to an external site (GitHub) which may be unfamiliar to ABI, triggering her low computer self-efficacy
-2. The page only shows a brief message "This tool needs to be loaded in a new browser window" without:
-   - Clear instructions about what will happen after clicking
-   - Explanation of what GitHub is or why it's needed
-   - Step-by-step guidance about the submission process
-   - Information about whether this is safe or the right path
-3. ABI's risk-averse nature would make her hesitant to:
-   - Leave the current familiar system
-   - Open a new browser window without knowing what to expect
-   - Click on an external link without comprehensive information
-4. Given her process-oriented learning style, ABI would prefer explicit instructions rather than having to figure out what to do on an external site
-The lack of detailed guidance and the requirement to use an unfamiliar external tool would make ABI uncertain about proceeding with this action.</t>
+1. The link leads to an external site (GitHub) which may be unfamiliar to ABI, triggering her low computer self-efficacy and risk-averse nature
+2. While there is a message stating "This tool needs to be loaded in a new browser window," it doesn't provide:
+   - Clear explanation of what GitHub is
+   - What will happen when clicking the link
+   - What she needs to do after clicking
+   - Step-by-step instructions for the submission process
+3. The presence of technical terms (GitHub classroom) without explanation would make ABI uncomfortable
+4. ABI's process-oriented learning style needs clear, detailed instructions before taking actions, especially when dealing with external tools
+5. Her comprehensive information processing style would make her want to understand the complete process before clicking on an external link
+Given these factors, ABI would likely feel uncertain and uncomfortable about proceeding without more detailed guidance about what to expect and how to use the external tool.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. Attitude Toward Risk
+Why: Even though ABI has reached the GitHub page, she will feel uncertain and overwhelmed because:
+1. The page presents unfamiliar technical elements and terminology:
+   - "GitHub Classroom"
+   - "repository"
+   - "GitHub Student Developer Pack"
+   Which would trigger her low computer self-efficacy
+2. There's no clear, step-by-step instruction about:
+   - How to actually submit the assignment
+   - What to do with the repository link provided
+   - Whether accepting the assignment is enough for submission
+   Which doesn't align with her process-oriented learning style
+3. The page introduces additional complexity with the GitHub Student Developer Pack offer, which could:
+   - Distract from the main task
+   - Create confusion about whether it's required
+   - Add to information overload
+   Which conflicts with her comprehensive information processing style
+4. Her risk-averse nature would make her uncomfortable proceeding without clear confirmation that she's on the right path for assignment submission
+ABI needs more explicit guidance about whether this is the correct path and what specific steps she needs to take next to submit her assignment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (No clear indication about Gradescope's role)
+Why: ABI would not naturally think of going to Gradescope as a step because:
+1. There's no explicit information on the page that indicates:
+   - Assignments need to be submitted through Gradescope
+   - The connection between GitHub and Gradescope
+   - That Gradescope is part of the submission process
+2. While Gradescope appears in the left navigation menu, there's no clear indication that:
+   - It's related to assignment submission
+   - It's a required step in the process
+   - How it fits into the workflow
+3. Given ABI's comprehensive information processing style, she would expect clear instructions about all steps needed for submission
+4. With her low computer self-efficacy, she wouldn't make assumptions about using additional platforms without explicit guidance
+5. Her process-oriented learning style would expect clear documentation of all required steps, which is not provided here regarding Gradescope's role
+The lack of clear connection between Gradescope and assignment submission would prevent ABI from considering this as a natural step in the process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. Learning Style
+Why: ABI will be hesitant to click on the Assignment 7 link because:
+1. There's no clear indication that:
+   - Clicking this link will lead to Gradescope
+   - This is the correct path to submit the assignment
+   - How this relates to the submission process
+   Which conflicts with her comprehensive information processing style
+2. Given her low computer self-efficacy and risk-averse nature, ABI would be uncertain about:
+   - Whether clicking this link is the right approach
+   - If this might lead her away from the correct submission path
+   - If she might lose progress or make a mistake
+3. Her process-oriented learning style would expect:
+   - Clear step-by-step instructions about how to submit
+   - Explicit mention of Gradescope's role
+   - Confirmation that this is the correct path
+4. The page lacks any contextual information about:
+   - The relationship between the Assignment 7 link and Gradescope
+   - The submission process
+   - What happens after clicking the link
+Given these factors, ABI would likely feel uncomfortable clicking the link without more explicit guidance about how it connects to submitting the assignment through Gradescope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets:
@@ -508,162 +591,87 @@
 2. Computer Self-Efficacy
 3. Learning Style
 4. Attitude Toward Risk
-Why: Even though ABI has reached the GitHub page, she will be uncertain about her progress because:
-1. The page presents unfamiliar technical elements:
-   - Multiple new icons in the navigation
-   - Technical terms like "repository" and "GitHub Pro"
-   - A new external link to the assignment repository
-2. Information Processing concerns:
-   - No clear step-by-step instructions about how to proceed with submission
-   - Multiple pieces of information (repository creation, GitHub Student Developer Pack) that may overwhelm ABI
-   - Unclear if this is the final destination for submission
-3. Learning Style misalignment:
-   - No process-oriented guidance about what to do next
-   - No clear indication if additional steps are needed
-   - No confirmation about whether this is the right path for submission
-4. Risk and Self-Efficacy concerns:
-   - New unfamiliar environment (GitHub)
-   - Uncertainty about whether clicking the repository link is safe or correct
-   - No clear confirmation that she's on the right track for submitting the assignment
-ABI would need clearer confirmation and step-by-step instructions to feel confident she's making progress toward submitting the assignment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: After clicking and landing on this page, ABI will feel uncertain and confused because:
+1. The page shows no clear connection to Gradescope:
+   - No mention of Gradescope
+   - No instructions about submitting through Gradescope
+   - Instead, it shows a GitHub classroom link
+   Which conflicts with her goal of submitting through Gradescope
+2. Her comprehensive information processing style is challenged because:
+   - The page presents different information (GitHub) than expected (Gradescope)
+   - There's no clear path or instructions about how this relates to submission
+   - Multiple unfamiliar elements (GitHub, external links) create confusion
+3. Her process-oriented learning style is frustrated by:
+   - Lack of step-by-step instructions for submission
+   - No clear indication of how this page connects to the final submission
+   - Unclear relationship between GitHub and assignment submission
+4. Her low computer self-efficacy and risk-averse nature would make her uncomfortable because:
+   - The page leads to an unexpected external tool (GitHub)
+   - No confirmation that she's on the right path to submission
+   - Unclear whether this step is necessary for Gradescope submission
+ABI would likely feel she has gone off track since the page doesn't provide clear guidance about how this relates to submitting the assignment through Gradescope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Learning Style
+4. Information Processing Style
+Why: ABI will be hesitant to click the "Load Assignment 7" button because:
+1. The page presents confusing and potentially conflicting information:
+   - Shows a GitHub classroom link above the button
+   - Mentions "This tool needs to be loaded in a new browser window"
+   - No clear indication this leads to Gradescope
+   Which challenges her comprehensive information processing style
+2. Her low computer self-efficacy is triggered by:
+   - Uncertainty about what "loading" the assignment means
+   - No clear explanation of what will happen after clicking
+   - Multiple technical elements (GitHub, external links) creating confusion
+3. Her risk-averse nature would make her hesitant because:
+   - Opening in a new window might seem risky
+   - No clear indication this is the path to Gradescope
+   - Unclear consequences of clicking the button
+4. Her process-oriented learning style is not supported:
+   - No step-by-step instructions
+   - No clear indication this is part of the submission process
+   - No explanation of how this relates to Gradescope submission
+The lack of clear guidance and connection to Gradescope would make ABI uncomfortable proceeding with this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Learning Style
-4. None of the Above (No clear indication about Gradescope's role)
-Why: ABI will not likely think of going to Gradescope as a step because:
-1. Information Processing Style concerns:
-   - There's no clear information on the page about using Gradescope for submission
-   - Although Gradescope appears in the left menu, there's no explicit connection between it and assignment submission
-   - The comprehensive information gatherer in ABI would struggle without clear indication of Gradescope's purpose
-2. Computer Self-Efficacy:
-   - Without clear instructions about using Gradescope, ABI's low confidence with unfamiliar tools would make her hesitant
-   - No indication that Gradescope is the correct tool for submission
-3. Learning Style:
-   - No process-oriented guidance mentioning Gradescope as part of the submission workflow
-   - Lack of step-by-step instructions about how assignments should be submitted
-4. None of the Above:
-   - The page doesn't establish any connection between Assignment 7 and Gradescope
-   - No clear indication that assignments need to be submitted through Gradescope
-Without explicit information linking Gradescope to assignment submission, ABI would not naturally consider this as a step in the process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Computer Self-Efficacy
-2. Attitude Toward Risk
-3. Information Processing Style
-4. None of the Above (Lack of clear submission path)
-Why: ABI will be hesitant to click on Assignment 7 in the Coming Up section because:
-1. Computer Self-Efficacy:
-   - No clear indication that clicking Assignment 7 will lead to Gradescope
-   - Uncertainty about whether this is the correct path to submission
-2. Attitude Toward Risk:
-   - Without clear information about where the link leads, ABI would be hesitant to click
-   - Multiple possible paths (Assignments in left menu vs Coming Up section) create uncertainty
-3. Information Processing Style:
-   - No comprehensive information about how to submit assignments
-   - No clear connection between Assignment 7 link and Gradescope
-   - Multiple navigation options could overwhelm ABI's need for complete information
-4. None of the Above:
-   - The page doesn't provide any indication that assignments need to be submitted through Gradescope
-   - No clear pathway or instructions linking Assignment 7 to Gradescope submission
-ABI would need explicit information about where the link leads and confirmation that this is the correct path to Gradescope for assignment submission.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
-4. None of the Above (Missing Gradescope connection)
-Why: ABI will not feel confident about her progress because:
-1. Information Processing Style:
-   - The page shows GitHub-related information instead of Gradescope
-   - No clear indication that this is a step toward submitting through Gradescope
-   - The information presented (about GitHub classroom) seems unrelated to her goal of submitting through Gradescope
-2. Computer Self-Efficacy:
-   - Landing on a page about GitHub when trying to reach Gradescope would decrease her confidence
-   - No clear connection between this page and the final submission process
-   - Technical terms and unfamiliar environment would make her doubt her actions
-3. Learning Style:
-   - No step-by-step guidance about how this page relates to Gradescope submission
-   - Lack of clear process-oriented instructions about what to do next
-4. None of the Above:
-   - The page doesn't mention Gradescope at all
-   - No indication that this is a correct step toward submission
-   - The page seems to lead to a different system (GitHub) than her intended destination (Gradescope)
-ABI would feel lost and uncertain as this page appears to lead her away from her goal of submitting the assignment through Gradescope, rather than toward it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Computer Self-Efficacy
-2. Attitude Toward Risk
-3. Information Processing Style
-4. Learning Style
-Why: ABI will be hesitant to click "Load Assignment 7 in a new window" because:
-1. Computer Self-Efficacy:
-   - The message about loading in a new browser window creates uncertainty
-   - No clear indication this leads to Gradescope
-   - Technical terms and external links may decrease her confidence
-2. Attitude Toward Risk:
-   - Opening in a new window represents an unknown outcome
-   - No clear indication of what will happen after clicking
-   - ABI is risk-averse to actions with unclear consequences
-3. Information Processing Style:
-   - Lacks comprehensive information about the submission process
-   - No clear connection between this action and Gradescope submission
-   - Multiple elements (GitHub link, new window message) create confusion
-4. Learning Style:
-   - No step-by-step guidance about how this relates to submission
-   - Lacks process-oriented instructions about what happens next
-   - No clear indication this is part of the submission workflow
-The page doesn't provide enough clear information to make ABI confident that clicking this button will help her achieve her goal of submitting through Gradescope.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
-Why: ABI will feel more confident now because:
-1. Information Processing Style:
-   - The page clearly shows she's in Gradescope, which is where she wants to submit
-   - The interface provides comprehensive information about assignments including due dates and submission status
-   - Project 7 is clearly visible in the list of assignments with relevant details
-2. Computer Self-Efficacy:
-   - The familiar Gradescope environment (assuming she's used it before for other assignments)
-   - Clear organization of assignments with their status
-   - The interface shows other successfully submitted assignments (100% complete bars), which builds confidence
-3. Learning Style:
-   - The process-oriented layout shows a clear progression of assignments
-   - Due dates and submission status are clearly displayed
-   - The consistent format for all assignments helps understand the submission process
-The page provides clear confirmation that she's in the right place (Gradescope) and shows Project 7 in the context of other assignments, with clear submission information and due dates. This aligns with her need for comprehensive information and process-oriented learning style.</t>
+4. Attitude Toward Risk
+Why: Even though ABI has reached Gradescope, she will still feel uncertain because:
+1. The page shows a list of assignments but:
+   - No clear submission instructions
+   - No indication of how to proceed with submitting Assignment 7
+   - Multiple assignments and dates creating potential confusion
+   Which challenges her comprehensive information processing style
+2. Her low computer self-efficacy is challenged by:
+   - Complex interface with multiple columns (Released, Due, Submissions, Graded)
+   - Technical terms and status indicators without explanation
+   - No clear next steps for submission
+3. Her process-oriented learning style isn't supported because:
+   - No step-by-step guidance for submission
+   - No clear indication of which action to take next
+   - Multiple possible interaction points without clear direction
+4. Her risk-averse nature would make her hesitant because:
+   - Multiple clickable elements without clear indication of their purpose
+   - Uncertainty about which action would lead to submission
+   - No confirmation this is the correct path for submission
+The lack of explicit guidance about how to proceed with the actual submission would leave ABI uncertain about whether she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
